--- a/biology/Botanique/Dombeya_ledermannii/Dombeya_ledermannii.xlsx
+++ b/biology/Botanique/Dombeya_ledermannii/Dombeya_ledermannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dombeya ledermannii Engl. est une espèce de plantes de la famille des Malvaceae et du genre Dombeya, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique rend hommage au botaniste suisse Carl Ludwig Ledermann qui, le 1er décembre 1908, récolta le premier spécimen, en fleurs, dans une forêt-galerie du Cameroun, entre Fossong et Dschang, à une altitude d'environ 1 200-1 300 m[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique rend hommage au botaniste suisse Carl Ludwig Ledermann qui, le 1er décembre 1908, récolta le premier spécimen, en fleurs, dans une forêt-galerie du Cameroun, entre Fossong et Dschang, à une altitude d'environ 1 200-1 300 m.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit arbre pouvant atteindre 15 m de hauteur[3]. En avril on l'aperçoit de loin grâce à ses fleurs blanches, mais la floraison peut se produire en novembre[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit arbre pouvant atteindre 15 m de hauteur. En avril on l'aperçoit de loin grâce à ses fleurs blanches, mais la floraison peut se produire en novembre.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée principalement au Cameroun, dans les Bamenda Highlands (en) (dont Réserve forestière de Bali Ngemba, Dom), également au Nigeria, sur le plateau de Mambila et le plateau de Jos[5].
-Assez rare, elle est considérée comme une « espèce en danger critique d'extinction » du fait de la déforestation[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée principalement au Cameroun, dans les Bamenda Highlands (en) (dont Réserve forestière de Bali Ngemba, Dom), également au Nigeria, sur le plateau de Mambila et le plateau de Jos.
+Assez rare, elle est considérée comme une « espèce en danger critique d'extinction » du fait de la déforestation.
 </t>
         </is>
       </c>
